--- a/Processing/Demographics.Facebook.Processing/Data/1-DataFolha-20171130.xlsx
+++ b/Processing/Demographics.Facebook.Processing/Data/1-DataFolha-20171130.xlsx
@@ -71,10 +71,10 @@
 Centro Oeste</t>
   </si>
   <si>
-    <t>Bolsonaro</t>
-  </si>
-  <si>
-    <t>Haddad</t>
+    <t>Jair Bolsonaro</t>
+  </si>
+  <si>
+    <t>Fernando Haddad</t>
   </si>
   <si>
     <t>Ciro Gomes</t>
@@ -101,13 +101,13 @@
     <t>Vera (PSTU)</t>
   </si>
   <si>
-    <t>Guilherme Boulos (PSOL)</t>
-  </si>
-  <si>
-    <t>João Goulart Filho (PPL)</t>
-  </si>
-  <si>
-    <t>Eymael (DC)</t>
+    <t>Guilherme Boulos</t>
+  </si>
+  <si>
+    <t>João Goulart Filho</t>
+  </si>
+  <si>
+    <t>Eymael</t>
   </si>
   <si>
     <t>Em branco/ nulo/ nenhum</t>

--- a/Processing/Demographics.Facebook.Processing/Data/1-DataFolha-20171130.xlsx
+++ b/Processing/Demographics.Facebook.Processing/Data/1-DataFolha-20171130.xlsx
@@ -273,16 +273,16 @@
         <v>26.00339175</v>
       </c>
       <c r="M3" s="1">
-        <v>55.71017274</v>
+        <v>49.45235487</v>
       </c>
       <c r="N3" s="1">
-        <v>12.23608445</v>
+        <v>13.96495071</v>
       </c>
       <c r="O3" s="1">
-        <v>15.54702495</v>
+        <v>17.74370208</v>
       </c>
       <c r="P3" s="1">
-        <v>16.50671785</v>
+        <v>18.83899233</v>
       </c>
     </row>
     <row r="4">
@@ -323,7 +323,7 @@
         <v>0.0</v>
       </c>
       <c r="M4" s="1">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="N4" s="1">
         <v>0.0</v>
@@ -373,16 +373,16 @@
         <v>28.08112324</v>
       </c>
       <c r="M5" s="1">
-        <v>33.7254902</v>
+        <v>51.65165165</v>
       </c>
       <c r="N5" s="1">
-        <v>8.235294118</v>
+        <v>11.26126126</v>
       </c>
       <c r="O5" s="1">
-        <v>42.35294118</v>
+        <v>20.27027027</v>
       </c>
       <c r="P5" s="1">
-        <v>15.68627451</v>
+        <v>16.81681682</v>
       </c>
     </row>
     <row r="6">
@@ -423,16 +423,16 @@
         <v>24.55661664</v>
       </c>
       <c r="M6" s="1">
-        <v>52.814739</v>
+        <v>77.42382271</v>
       </c>
       <c r="N6" s="1">
-        <v>12.28249744</v>
+        <v>6.232686981</v>
       </c>
       <c r="O6" s="1">
-        <v>19.34493347</v>
+        <v>7.479224377</v>
       </c>
       <c r="P6" s="1">
-        <v>15.55783009</v>
+        <v>8.864265928</v>
       </c>
     </row>
     <row r="7">
